--- a/avg and fangcha.xlsx
+++ b/avg and fangcha.xlsx
@@ -360,13 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:Y40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -1935,6 +1938,42 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <f>A9</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="B39">
+        <f>H9</f>
+        <v>1.7220788470785986</v>
+      </c>
+      <c r="D39">
+        <f>C9</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="E39">
+        <f>J9</f>
+        <v>1.0241527663824808</v>
+      </c>
+      <c r="F39">
+        <f>O9</f>
+        <v>4.2217689815210555</v>
+      </c>
+      <c r="H39">
+        <f>E9</f>
+        <v>0.7118052168020873</v>
+      </c>
+      <c r="I39">
+        <f>L9</f>
+        <v>1.7625738755203042</v>
+      </c>
+      <c r="J39">
+        <f>Q9</f>
+        <v>0.7118052168020873</v>
+      </c>
+      <c r="K39">
+        <f>T9</f>
+        <v>9.6414037705443434</v>
+      </c>
       <c r="O39" s="1">
         <v>17</v>
       </c>
@@ -1965,40 +2004,40 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40">
-        <f>A9</f>
-        <v>0.89442719099991586</v>
+        <f>B9</f>
+        <v>0.9165151389911681</v>
       </c>
       <c r="B40">
-        <f>H9</f>
-        <v>1.7220788470785986</v>
+        <f>I9</f>
+        <v>1.8208667044996887</v>
       </c>
       <c r="D40">
-        <f>C9</f>
-        <v>0.89442719099991586</v>
+        <f>D9</f>
+        <v>0.86986589004665948</v>
       </c>
       <c r="E40">
-        <f>J9</f>
-        <v>1.0241527663824808</v>
+        <f>K9</f>
+        <v>1.6346933113652307</v>
       </c>
       <c r="F40">
-        <f>O9</f>
-        <v>4.2217689815210555</v>
+        <f>P9</f>
+        <v>0.86986589004665948</v>
       </c>
       <c r="H40">
-        <f>E9</f>
-        <v>0.7118052168020873</v>
+        <f>F9</f>
+        <v>0.79162280580252775</v>
       </c>
       <c r="I40">
-        <f>L9</f>
-        <v>1.7625738755203042</v>
+        <f>M9</f>
+        <v>1.5129074290546958</v>
       </c>
       <c r="J40">
-        <f>Q9</f>
-        <v>0.7118052168020873</v>
+        <f>R9</f>
+        <v>0.79162280580252775</v>
       </c>
       <c r="K40">
-        <f>T9</f>
-        <v>9.6414037705443434</v>
+        <f>U9</f>
+        <v>12.456189893649931</v>
       </c>
       <c r="O40" s="1">
         <v>17.600000381469702</v>
@@ -2028,46 +2067,693 @@
         <v>418.100006103515</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <f>B9</f>
-        <v>0.9165151389911681</v>
-      </c>
-      <c r="B41">
-        <f>I9</f>
-        <v>1.8208667044996887</v>
-      </c>
-      <c r="D41">
-        <f>D9</f>
-        <v>0.86986589004665948</v>
-      </c>
-      <c r="E41">
-        <f>K9</f>
-        <v>1.6346933113652307</v>
-      </c>
-      <c r="F41">
-        <f>P9</f>
-        <v>0.86986589004665948</v>
-      </c>
-      <c r="H41">
-        <f>F9</f>
-        <v>0.79162280580252775</v>
-      </c>
-      <c r="I41">
-        <f>M9</f>
-        <v>1.5129074290546958</v>
-      </c>
-      <c r="J41">
-        <f>R9</f>
-        <v>0.79162280580252775</v>
-      </c>
-      <c r="K41">
-        <f>U9</f>
-        <v>12.456189893649931</v>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A48" t="str">
+        <f xml:space="preserve"> ROUND(O15,2) &amp; "/" &amp; ROUND(A15,2)</f>
+        <v>26.2/0.91</v>
+      </c>
+      <c r="B48" t="str">
+        <f xml:space="preserve"> ROUND(P15,2) &amp; "/" &amp; ROUND(B15,2)</f>
+        <v>126.07/2.16</v>
+      </c>
+      <c r="D48" t="str">
+        <f xml:space="preserve"> ROUND(R15,2) &amp; "/" &amp; ROUND(D15,2)</f>
+        <v>26.73/1.12</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" ref="E48:F48" si="0" xml:space="preserve"> ROUND(S15,2) &amp; "/" &amp; ROUND(E15,2)</f>
+        <v>127.13/2.38</v>
+      </c>
+      <c r="F48" t="str">
+        <f xml:space="preserve"> ROUND(T15,2) &amp; "/" &amp; ROUND(F15,2)</f>
+        <v>519.23/3.88</v>
+      </c>
+      <c r="H48" t="str">
+        <f xml:space="preserve"> ROUND(V15,2) &amp; "/" &amp; ROUND(H15,2)</f>
+        <v>26.8/0.95</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" ref="I48:K48" si="1" xml:space="preserve"> ROUND(W15,2) &amp; "/" &amp; ROUND(I15,2)</f>
+        <v>125.9/1.62</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>519.9/0.95</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>1906.17/8.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" t="str">
+        <f xml:space="preserve"> ROUND(O16,2) &amp; "/" &amp; ROUND(A16,2)</f>
+        <v>30.87/1.06</v>
+      </c>
+      <c r="B49" t="str">
+        <f xml:space="preserve"> ROUND(P16,2) &amp; "/" &amp; ROUND(B16,2)</f>
+        <v>123.53/2.46</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" ref="D49:D73" si="2" xml:space="preserve"> ROUND(R16,2) &amp; "/" &amp; ROUND(D16,2)</f>
+        <v>30.77/0.8</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" ref="E49:E73" si="3" xml:space="preserve"> ROUND(S16,2) &amp; "/" &amp; ROUND(E16,2)</f>
+        <v>137.93/1.95</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" ref="F49:F73" si="4" xml:space="preserve"> ROUND(T16,2) &amp; "/" &amp; ROUND(F16,2)</f>
+        <v>509.23/0.8</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" ref="H49:H73" si="5" xml:space="preserve"> ROUND(V16,2) &amp; "/" &amp; ROUND(H16,2)</f>
+        <v>30.17/1.04</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" ref="I49:I73" si="6" xml:space="preserve"> ROUND(W16,2) &amp; "/" &amp; ROUND(I16,2)</f>
+        <v>139.13/1.93</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" ref="J49:J73" si="7" xml:space="preserve"> ROUND(X16,2) &amp; "/" &amp; ROUND(J16,2)</f>
+        <v>553.07/1.04</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" ref="K49:K73" si="8" xml:space="preserve"> ROUND(Y16,2) &amp; "/" &amp; ROUND(K16,2)</f>
+        <v>1865.5/7.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" t="str">
+        <f t="shared" ref="A51:B51" si="9" xml:space="preserve"> ROUND(O18,2) &amp; "/" &amp; ROUND(A18,2)</f>
+        <v>85.53/1.98</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="9"/>
+        <v>226.23/3.95</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>85.87/2.03</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="3"/>
+        <v>227.1/4.78</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="4"/>
+        <v>703/7.51</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="5"/>
+        <v>86.1/1.76</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="6"/>
+        <v>227.8/4.28</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="7"/>
+        <v>704.07/1.76</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="8"/>
+        <v>1466.1/13.88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f t="shared" ref="A52:B52" si="10" xml:space="preserve"> ROUND(O19,2) &amp; "/" &amp; ROUND(A19,2)</f>
+        <v>90.03/0.75</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="10"/>
+        <v>167.87/3.3</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v>84.93/1.88</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="3"/>
+        <v>244.47/2.26</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="4"/>
+        <v>661.93/1.88</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="5"/>
+        <v>84.1/1.58</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="6"/>
+        <v>246.63/2.39</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="7"/>
+        <v>610.27/1.58</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="8"/>
+        <v>1340.83/12.63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" t="str">
+        <f t="shared" ref="A54:B54" si="11" xml:space="preserve"> ROUND(O21,2) &amp; "/" &amp; ROUND(A21,2)</f>
+        <v>17.27/0.96</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="11"/>
+        <v>54.13/1.71</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v>17.03/0.98</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="3"/>
+        <v>54.97/1.97</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="4"/>
+        <v>138.37/3.02</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="5"/>
+        <v>16.97/0.87</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="6"/>
+        <v>55.13/1.89</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="7"/>
+        <v>138.93/0.87</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="8"/>
+        <v>302.23/5.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" t="str">
+        <f t="shared" ref="A55:B55" si="12" xml:space="preserve"> ROUND(O22,2) &amp; "/" &amp; ROUND(A22,2)</f>
+        <v>19.03/0.98</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="12"/>
+        <v>53.5/2.47</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v>19.23/0.8</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="3"/>
+        <v>55.83/1.75</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="4"/>
+        <v>135.67/0.8</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="5"/>
+        <v>18.53/0.92</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="6"/>
+        <v>56.7/2.12</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="7"/>
+        <v>136.2/0.92</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="8"/>
+        <v>291.33/3.47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" t="str">
+        <f t="shared" ref="A57:B57" si="13" xml:space="preserve"> ROUND(O24,2) &amp; "/" &amp; ROUND(A24,2)</f>
+        <v>12.23/1.05</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="13"/>
+        <v>32.97/1.2</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v>12.8/1.22</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="3"/>
+        <v>33.27/1.44</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="4"/>
+        <v>87.1/4.37</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="5"/>
+        <v>12.67/1.11</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="6"/>
+        <v>33.13/1.65</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="7"/>
+        <v>87.5/1.11</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="8"/>
+        <v>212.13/7.91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" t="str">
+        <f t="shared" ref="A58:B58" si="14" xml:space="preserve"> ROUND(O25,2) &amp; "/" &amp; ROUND(A25,2)</f>
+        <v>12.47/0.72</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="14"/>
+        <v>31.43/1.58</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v>12.53/0.76</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="3"/>
+        <v>33.2/1.22</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="4"/>
+        <v>83.33/0.76</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="5"/>
+        <v>12.87/1.02</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="6"/>
+        <v>34.4/1.11</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="7"/>
+        <v>83.4/1.02</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="8"/>
+        <v>200.13/8.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" t="str">
+        <f t="shared" ref="A60:B60" si="15" xml:space="preserve"> ROUND(O27,2) &amp; "/" &amp; ROUND(A27,2)</f>
+        <v>21.9/1.47</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="15"/>
+        <v>85.4/2.12</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="2"/>
+        <v>21.67/1.11</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="3"/>
+        <v>85.73/1.93</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="4"/>
+        <v>307.9/3.46</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="5"/>
+        <v>21.73/1.34</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="6"/>
+        <v>85.63/2.17</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="7"/>
+        <v>306.7/1.34</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="8"/>
+        <v>984.1/6.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" t="str">
+        <f t="shared" ref="A61:B61" si="16" xml:space="preserve"> ROUND(O28,2) &amp; "/" &amp; ROUND(A28,2)</f>
+        <v>23.43/0.96</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="16"/>
+        <v>84.97/1.82</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="2"/>
+        <v>23.93/0.85</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="3"/>
+        <v>91.1/1.83</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="4"/>
+        <v>300.87/0.85</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="5"/>
+        <v>23.73/0.77</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="6"/>
+        <v>92.9/1.87</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="7"/>
+        <v>318.87/0.77</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="8"/>
+        <v>962.37/6.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" t="str">
+        <f t="shared" ref="A63:B63" si="17" xml:space="preserve"> ROUND(O30,2) &amp; "/" &amp; ROUND(A30,2)</f>
+        <v>85.9/1.72</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="17"/>
+        <v>228.27/3.63</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="2"/>
+        <v>86.5/2.01</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="3"/>
+        <v>226.97/3.7</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="4"/>
+        <v>701.57/7.93</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="5"/>
+        <v>86.1/1.49</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="6"/>
+        <v>226.23/3.78</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="7"/>
+        <v>700.6/1.49</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="8"/>
+        <v>1457.73/14.43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" t="str">
+        <f t="shared" ref="A64:B64" si="18" xml:space="preserve"> ROUND(O31,2) &amp; "/" &amp; ROUND(A31,2)</f>
+        <v>90.17/0.58</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="18"/>
+        <v>167.13/2.2</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="2"/>
+        <v>85.5/2.14</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="3"/>
+        <v>244.33/2.05</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="4"/>
+        <v>663.53/2.14</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="5"/>
+        <v>83.8/1.7</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="6"/>
+        <v>245.87/2.95</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="7"/>
+        <v>612.07/1.7</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="8"/>
+        <v>1341.23/15.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" t="str">
+        <f t="shared" ref="A66:B66" si="19" xml:space="preserve"> ROUND(O33,2) &amp; "/" &amp; ROUND(A33,2)</f>
+        <v>29.53/2.12</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="19"/>
+        <v>100.33/2.57</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="2"/>
+        <v>29.33/2.33</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="3"/>
+        <v>100.67/2.71</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="4"/>
+        <v>336.8/7.07</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="5"/>
+        <v>29.27/2.06</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="6"/>
+        <v>100.43/3.19</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="7"/>
+        <v>334.53/2.06</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="8"/>
+        <v>953.97/15.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:B67" si="20" xml:space="preserve"> ROUND(O34,2) &amp; "/" &amp; ROUND(A34,2)</f>
+        <v>29/1.51</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="20"/>
+        <v>96.13/3.26</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="2"/>
+        <v>29.07/1.59</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="3"/>
+        <v>103/1.67</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="4"/>
+        <v>324.87/1.59</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="5"/>
+        <v>28.6/1.45</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="6"/>
+        <v>103.93/2.24</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="7"/>
+        <v>312.97/1.45</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="8"/>
+        <v>896.07/13.89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" t="str">
+        <f t="shared" ref="A69:B69" si="21" xml:space="preserve"> ROUND(O36,2) &amp; "/" &amp; ROUND(A36,2)</f>
+        <v>21.13/1.12</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="21"/>
+        <v>76.83/4.45</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="2"/>
+        <v>21.2/0.95</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>75.23/3.4</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="4"/>
+        <v>218.27/4.84</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="5"/>
+        <v>21.17/1.29</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="6"/>
+        <v>75.7/3.56</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="7"/>
+        <v>216.23/1.29</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="8"/>
+        <v>557.53/9.34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" t="str">
+        <f t="shared" ref="A70:B70" si="22" xml:space="preserve"> ROUND(O37,2) &amp; "/" &amp; ROUND(A37,2)</f>
+        <v>21.43/1.05</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="22"/>
+        <v>75.17/3.66</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="2"/>
+        <v>21.57/1.12</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>76.23/2.26</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="4"/>
+        <v>203.67/1.12</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="5"/>
+        <v>21.43/0.96</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="6"/>
+        <v>76.2/2.41</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="7"/>
+        <v>211.37/0.96</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="8"/>
+        <v>516.93/7.78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" t="str">
+        <f t="shared" ref="A72:B72" si="23" xml:space="preserve"> ROUND(O39,2) &amp; "/" &amp; ROUND(A39,2)</f>
+        <v>17/0.89</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="23"/>
+        <v>55.03/1.72</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
+        <v>17/0.89</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v>55.13/1.02</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="4"/>
+        <v>167.1/4.22</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="5"/>
+        <v>16.6/0.71</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="6"/>
+        <v>54.6/1.76</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="7"/>
+        <v>164.83/0.71</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="8"/>
+        <v>444.1/9.64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" t="str">
+        <f t="shared" ref="A73:B73" si="24" xml:space="preserve"> ROUND(O40,2) &amp; "/" &amp; ROUND(A40,2)</f>
+        <v>17.6/0.92</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="24"/>
+        <v>53.13/1.82</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
+        <v>18.1/0.87</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="3"/>
+        <v>56.17/1.63</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="4"/>
+        <v>160.67/0.87</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="5"/>
+        <v>17.8/0.79</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="6"/>
+        <v>57.33/1.51</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="7"/>
+        <v>160.03/0.79</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="8"/>
+        <v>418.1/12.46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/avg and fangcha.xlsx
+++ b/avg and fangcha.xlsx
@@ -362,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:K73"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,7 +748,7 @@
         <v>7.0729531785999171</v>
       </c>
       <c r="P7">
-        <v>1.590248058916875</v>
+        <v>1.5902480589168799</v>
       </c>
       <c r="Q7">
         <v>2.0645150089602691</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="F34">
         <f>P7</f>
-        <v>1.590248058916875</v>
+        <v>1.5902480589168799</v>
       </c>
       <c r="H34">
         <f>F7</f>
@@ -2081,7 +2081,7 @@
         <v>26.73/1.12</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" ref="E48:F48" si="0" xml:space="preserve"> ROUND(S15,2) &amp; "/" &amp; ROUND(E15,2)</f>
+        <f t="shared" ref="E48" si="0" xml:space="preserve"> ROUND(S15,2) &amp; "/" &amp; ROUND(E15,2)</f>
         <v>127.13/2.38</v>
       </c>
       <c r="F48" t="str">
